--- a/biology/Médecine/1464_en_santé_et_médecine/1464_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1464_en_santé_et_médecine/1464_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1464_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1464_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1464 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1464_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1464_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>22 décembre : bulle du pape Paul III qui confirme la fondation par le roi Louis XI, en 1463, de l'université de Bourges, « école générale avec facultés de théologie, de droit canonique et de droit civil, de médecine et des arts[1] ».
-Fondation de l'hôpital de la Trinité à Metz en Lorraine par un marchand nommé Jean de Metz[2].
-Les statuts de la corporation des maréchaux-ferrants de Rouen, en Normandie, qui exigent trois années d'apprentissage, « prennent en compte les deux aspects du métier » : la ferrure, mais aussi la médecine[3].
-Pierre d'Urrea, archevêque de Tarragone, en Catalogne, fonde l'hôpital Sainte-Thècle (ca) (Hospital de Santa Tecla), par fusion de l'hôpital ecclésiastique et de l'hôpital municipal[4].
-Fondation à Montbéliard d'un hospice destiné aux vieillards et aux infirmes, mais qui ne s'ouvrira pas aux malades avant le milieu du XIXe siècle[5].
-Selon l'historien Ibn al-Badrï († 1489), l'épilepsie du fils du chambellan du calife est traitée avec succès par le cannabis[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>22 décembre : bulle du pape Paul III qui confirme la fondation par le roi Louis XI, en 1463, de l'université de Bourges, « école générale avec facultés de théologie, de droit canonique et de droit civil, de médecine et des arts ».
+Fondation de l'hôpital de la Trinité à Metz en Lorraine par un marchand nommé Jean de Metz.
+Les statuts de la corporation des maréchaux-ferrants de Rouen, en Normandie, qui exigent trois années d'apprentissage, « prennent en compte les deux aspects du métier » : la ferrure, mais aussi la médecine.
+Pierre d'Urrea, archevêque de Tarragone, en Catalogne, fonde l'hôpital Sainte-Thècle (ca) (Hospital de Santa Tecla), par fusion de l'hôpital ecclésiastique et de l'hôpital municipal.
+Fondation à Montbéliard d'un hospice destiné aux vieillards et aux infirmes, mais qui ne s'ouvrira pas aux malades avant le milieu du XIXe siècle.
+Selon l'historien Ibn al-Badrï († 1489), l'épilepsie du fils du chambellan du calife est traitée avec succès par le cannabis.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1464_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1464_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Pierre Contier (né à une date inconnue), médecin et conseiller du roi René[7].
-1463-1464 : Louis de Langle (né à une date inconnue), médecin et astrologue espagnol, établi à Lyon, traducteur du catalan en latin, pensionné par le roi Charles VII[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pierre Contier (né à une date inconnue), médecin et conseiller du roi René.
+1463-1464 : Louis de Langle (né à une date inconnue), médecin et astrologue espagnol, établi à Lyon, traducteur du catalan en latin, pensionné par le roi Charles VII.</t>
         </is>
       </c>
     </row>
